--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/4_queue/20200125-early_vote/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC2D413-D6FF-8E41-97DB-5C13052A9249}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6886F2AC-A3F6-9E46-8B10-8EE5C39A8E1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="1040" windowWidth="26960" windowHeight="18400" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3500" yWindow="1040" windowWidth="26960" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020_p_counties" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="501">
   <si>
     <t>countyname</t>
   </si>
@@ -1747,7 +1747,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1802,6 +1802,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3204,16 +3205,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A272C687-6191-E64E-B12D-E2FD4695954B}">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AA89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="40" t="s">
         <v>223</v>
       </c>
       <c r="B1" s="23" t="s">
@@ -3225,75 +3230,3507 @@
       <c r="D1" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="40" t="s">
         <v>247</v>
       </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40">
+        <v>10250</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="G2" s="40">
+        <v>0</v>
+      </c>
+      <c r="H2" s="40">
+        <v>0</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="40">
+        <v>214276</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" s="40">
+        <v>0</v>
+      </c>
+      <c r="H3" s="40">
+        <v>0</v>
+      </c>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="40">
+        <v>19721</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="G4" s="40">
+        <v>0</v>
+      </c>
+      <c r="H4" s="40">
+        <v>0</v>
+      </c>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="40">
+        <v>24242</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G5" s="40">
+        <v>0</v>
+      </c>
+      <c r="H5" s="40">
+        <v>0</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="40">
+        <v>23261</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G6" s="40">
+        <v>0</v>
+      </c>
+      <c r="H6" s="40">
+        <v>0</v>
+      </c>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40">
+        <v>3068</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G7" s="40">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40">
+        <v>0</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="40">
+        <v>37036</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G8" s="40">
+        <v>0</v>
+      </c>
+      <c r="H8" s="40">
+        <v>0</v>
+      </c>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="40">
+        <v>15332</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G9" s="40">
+        <v>0</v>
+      </c>
+      <c r="H9" s="40">
+        <v>0</v>
+      </c>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="40">
+        <v>20936</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="G10" s="40">
+        <v>0</v>
+      </c>
+      <c r="H10" s="40">
+        <v>0</v>
+      </c>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="40">
+        <v>65943</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="G11" s="40">
+        <v>0</v>
+      </c>
+      <c r="H11" s="40">
+        <v>0</v>
+      </c>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="40">
+        <v>18970</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G12" s="40">
+        <v>0</v>
+      </c>
+      <c r="H12" s="40">
+        <v>0</v>
+      </c>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="40">
+        <v>7074</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" s="40">
+        <v>0</v>
+      </c>
+      <c r="H13" s="40">
+        <v>0</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="40">
+        <v>34713</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G14" s="40">
+        <v>0</v>
+      </c>
+      <c r="H14" s="40">
+        <v>0</v>
+      </c>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="40">
+        <v>33737</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="G15" s="40">
+        <v>0</v>
+      </c>
+      <c r="H15" s="40">
+        <v>0</v>
+      </c>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="40">
+        <v>4652</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G16" s="40">
+        <v>0</v>
+      </c>
+      <c r="H16" s="40">
+        <v>0</v>
+      </c>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="40">
+        <v>3828</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="G17" s="40">
+        <v>0</v>
+      </c>
+      <c r="H17" s="40">
+        <v>0</v>
+      </c>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="40">
+        <v>6262</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G18" s="40">
+        <v>0</v>
+      </c>
+      <c r="H18" s="40">
+        <v>0</v>
+      </c>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="40">
+        <v>41353</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G19" s="40">
+        <v>0</v>
+      </c>
+      <c r="H19" s="40">
+        <v>0</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="40">
+        <v>266373</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="G20" s="40">
+        <v>0</v>
+      </c>
+      <c r="H20" s="40">
+        <v>0</v>
+      </c>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="40">
+        <v>12026</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G21" s="40">
+        <v>0</v>
+      </c>
+      <c r="H21" s="40">
+        <v>0</v>
+      </c>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="40">
+        <v>25363</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="G22" s="40">
+        <v>0</v>
+      </c>
+      <c r="H22" s="40">
+        <v>0</v>
+      </c>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="40">
+        <v>8167</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G23" s="40">
+        <v>0</v>
+      </c>
+      <c r="H23" s="40">
+        <v>0</v>
+      </c>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="40">
+        <v>12290</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G24" s="40">
+        <v>0</v>
+      </c>
+      <c r="H24" s="40">
+        <v>0</v>
+      </c>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="40">
+        <v>17925</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G25" s="40">
+        <v>0</v>
+      </c>
+      <c r="H25" s="40">
+        <v>0</v>
+      </c>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="40">
+        <v>29202</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G26" s="40">
+        <v>0</v>
+      </c>
+      <c r="H26" s="40">
+        <v>0</v>
+      </c>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="40">
+        <v>3852</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="G27" s="40">
+        <v>0</v>
+      </c>
+      <c r="H27" s="40">
+        <v>0</v>
+      </c>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="40">
+        <v>780610</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="G28" s="40">
+        <v>0</v>
+      </c>
+      <c r="H28" s="40">
+        <v>0</v>
+      </c>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="40">
+        <v>11976</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G29" s="40">
+        <v>0</v>
+      </c>
+      <c r="H29" s="40">
+        <v>0</v>
+      </c>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="40">
+        <v>13310</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G30" s="40">
+        <v>0</v>
+      </c>
+      <c r="H30" s="40">
+        <v>0</v>
+      </c>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="40">
+        <v>24204</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G31" s="40">
+        <v>0</v>
+      </c>
+      <c r="H31" s="40">
+        <v>0</v>
+      </c>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="40">
+        <v>27565</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="G32" s="40">
+        <v>0</v>
+      </c>
+      <c r="H32" s="40">
+        <v>0</v>
+      </c>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="40">
+        <v>5990</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G33" s="40">
+        <v>0</v>
+      </c>
+      <c r="H33" s="40">
+        <v>0</v>
+      </c>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A34" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="40">
+        <v>9626</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G34" s="40">
+        <v>0</v>
+      </c>
+      <c r="H34" s="40">
+        <v>0</v>
+      </c>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A35" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="40">
+        <v>24526</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G35" s="40">
+        <v>0</v>
+      </c>
+      <c r="H35" s="40">
+        <v>0</v>
+      </c>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="40">
+        <v>2706</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G36" s="40">
+        <v>0</v>
+      </c>
+      <c r="H36" s="40">
+        <v>0</v>
+      </c>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A37" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="40">
+        <v>7044</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="G37" s="40">
+        <v>0</v>
+      </c>
+      <c r="H37" s="40">
+        <v>0</v>
+      </c>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="40">
+        <v>4172</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G38" s="40">
+        <v>0</v>
+      </c>
+      <c r="H38" s="40">
+        <v>0</v>
+      </c>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A39" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="40">
+        <v>7153</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="G39" s="40">
+        <v>0</v>
+      </c>
+      <c r="H39" s="40">
+        <v>0</v>
+      </c>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A40" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="40">
+        <v>2448</v>
+      </c>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G40" s="40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A41" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="40">
+        <v>17237</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G41" s="40">
+        <v>0</v>
+      </c>
+      <c r="H41" s="40">
+        <v>0</v>
+      </c>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="40"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A42" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="40">
+        <v>3421</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G42" s="40">
+        <v>0</v>
+      </c>
+      <c r="H42" s="40">
+        <v>0</v>
+      </c>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A43" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="40">
+        <v>13636</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G43" s="40">
+        <v>0</v>
+      </c>
+      <c r="H43" s="40">
+        <v>0</v>
+      </c>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="40"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A44" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="40">
+        <v>21176</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G44" s="40">
+        <v>0</v>
+      </c>
+      <c r="H44" s="40">
+        <v>0</v>
+      </c>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
+      <c r="AA44" s="40"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A45" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="40">
+        <v>2522</v>
+      </c>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G45" s="40">
+        <v>0</v>
+      </c>
+      <c r="H45" s="40">
+        <v>0</v>
+      </c>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A46" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="40">
+        <v>5322</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G46" s="40">
+        <v>0</v>
+      </c>
+      <c r="H46" s="40">
+        <v>0</v>
+      </c>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="40"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A47" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="40">
+        <v>11480</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" s="40">
+        <v>0</v>
+      </c>
+      <c r="H47" s="40">
+        <v>0</v>
+      </c>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A48" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="40">
+        <v>13741</v>
+      </c>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G48" s="40">
+        <v>0</v>
+      </c>
+      <c r="H48" s="40">
+        <v>0</v>
+      </c>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="40"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A49" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="40">
+        <v>15018</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G49" s="40">
+        <v>0</v>
+      </c>
+      <c r="H49" s="40">
+        <v>0</v>
+      </c>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="40"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A50" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="40">
+        <v>20059</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G50" s="40">
+        <v>0</v>
+      </c>
+      <c r="H50" s="40">
+        <v>0</v>
+      </c>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="40"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A51" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="40">
+        <v>20351</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G51" s="40">
+        <v>0</v>
+      </c>
+      <c r="H51" s="40">
+        <v>0</v>
+      </c>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="40"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A52" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="40">
+        <v>5135</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G52" s="40">
+        <v>0</v>
+      </c>
+      <c r="H52" s="40">
+        <v>0</v>
+      </c>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="40"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A53" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="40">
+        <v>20032</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G53" s="40">
+        <v>0</v>
+      </c>
+      <c r="H53" s="40">
+        <v>0</v>
+      </c>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="40"/>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A54" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="40">
+        <v>9723</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G54" s="40">
+        <v>0</v>
+      </c>
+      <c r="H54" s="40">
+        <v>0</v>
+      </c>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A55" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="40">
+        <v>3601</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G55" s="40">
+        <v>0</v>
+      </c>
+      <c r="H55" s="40">
+        <v>0</v>
+      </c>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="40"/>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A56" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="40">
+        <v>93568</v>
+      </c>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G56" s="40">
+        <v>0</v>
+      </c>
+      <c r="H56" s="40">
+        <v>0</v>
+      </c>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="40"/>
+      <c r="Z56" s="40"/>
+      <c r="AA56" s="40"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A57" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="40">
+        <v>36844</v>
+      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="G57" s="40">
+        <v>0</v>
+      </c>
+      <c r="H57" s="40">
+        <v>0</v>
+      </c>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="40"/>
+      <c r="Z57" s="40"/>
+      <c r="AA57" s="40"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A58" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="40">
+        <v>7381</v>
+      </c>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G58" s="40">
+        <v>0</v>
+      </c>
+      <c r="H58" s="40">
+        <v>0</v>
+      </c>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="40"/>
+      <c r="Z58" s="40"/>
+      <c r="AA58" s="40"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A59" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="40">
+        <v>15971</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G59" s="40">
+        <v>0</v>
+      </c>
+      <c r="H59" s="40">
+        <v>0</v>
+      </c>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="40"/>
+      <c r="Z59" s="40"/>
+      <c r="AA59" s="40"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A60" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="40">
+        <v>5202</v>
+      </c>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G60" s="40">
+        <v>0</v>
+      </c>
+      <c r="H60" s="40">
+        <v>0</v>
+      </c>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="40"/>
+      <c r="AA60" s="40"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A61" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="40">
+        <v>16608</v>
+      </c>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G61" s="40">
+        <v>0</v>
+      </c>
+      <c r="H61" s="40">
+        <v>0</v>
+      </c>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="40"/>
+      <c r="Z61" s="40"/>
+      <c r="AA61" s="40"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A62" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="40">
+        <v>7033</v>
+      </c>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="G62" s="40">
+        <v>0</v>
+      </c>
+      <c r="H62" s="40">
+        <v>0</v>
+      </c>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="40"/>
+      <c r="Z62" s="40"/>
+      <c r="AA62" s="40"/>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A63" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="40">
+        <v>315802</v>
+      </c>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="G63" s="40">
+        <v>0</v>
+      </c>
+      <c r="H63" s="40">
+        <v>0</v>
+      </c>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="40"/>
+      <c r="AA63" s="40"/>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A64" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="40">
+        <v>2155</v>
+      </c>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G64" s="40">
+        <v>0</v>
+      </c>
+      <c r="H64" s="40">
+        <v>0</v>
+      </c>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
+      <c r="X64" s="40"/>
+      <c r="Y64" s="40"/>
+      <c r="Z64" s="40"/>
+      <c r="AA64" s="40"/>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A65" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="40">
+        <v>8838</v>
+      </c>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G65" s="40">
+        <v>0</v>
+      </c>
+      <c r="H65" s="40">
+        <v>0</v>
+      </c>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="40"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="40"/>
+      <c r="X65" s="40"/>
+      <c r="Y65" s="40"/>
+      <c r="Z65" s="40"/>
+      <c r="AA65" s="40"/>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A66" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="40">
+        <v>8540</v>
+      </c>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G66" s="40">
+        <v>0</v>
+      </c>
+      <c r="H66" s="40">
+        <v>0</v>
+      </c>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="40"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="40"/>
+      <c r="Y66" s="40"/>
+      <c r="Z66" s="40"/>
+      <c r="AA66" s="40"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A67" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="40">
+        <v>36973</v>
+      </c>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G67" s="40">
+        <v>0</v>
+      </c>
+      <c r="H67" s="40">
+        <v>0</v>
+      </c>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="40"/>
+      <c r="U67" s="40"/>
+      <c r="V67" s="40"/>
+      <c r="W67" s="40"/>
+      <c r="X67" s="40"/>
+      <c r="Y67" s="40"/>
+      <c r="Z67" s="40"/>
+      <c r="AA67" s="40"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A68" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="40">
+        <v>5130</v>
+      </c>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G68" s="40">
+        <v>0</v>
+      </c>
+      <c r="H68" s="40">
+        <v>0</v>
+      </c>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
+      <c r="X68" s="40"/>
+      <c r="Y68" s="40"/>
+      <c r="Z68" s="40"/>
+      <c r="AA68" s="40"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A69" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="40">
+        <v>8749</v>
+      </c>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G69" s="40">
+        <v>0</v>
+      </c>
+      <c r="H69" s="40">
+        <v>0</v>
+      </c>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
+      <c r="V69" s="40"/>
+      <c r="W69" s="40"/>
+      <c r="X69" s="40"/>
+      <c r="Y69" s="40"/>
+      <c r="Z69" s="40"/>
+      <c r="AA69" s="40"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A70" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="40">
+        <v>125571</v>
+      </c>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="G70" s="40">
+        <v>0</v>
+      </c>
+      <c r="H70" s="40">
+        <v>0</v>
+      </c>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="40"/>
+      <c r="X70" s="40"/>
+      <c r="Y70" s="40"/>
+      <c r="Z70" s="40"/>
+      <c r="AA70" s="40"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A71" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="40">
+        <v>87873</v>
+      </c>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="G71" s="40">
+        <v>0</v>
+      </c>
+      <c r="H71" s="40">
+        <v>0</v>
+      </c>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="40"/>
+      <c r="U71" s="40"/>
+      <c r="V71" s="40"/>
+      <c r="W71" s="40"/>
+      <c r="X71" s="40"/>
+      <c r="Y71" s="40"/>
+      <c r="Z71" s="40"/>
+      <c r="AA71" s="40"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A72" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="40">
+        <v>56966</v>
+      </c>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G72" s="40">
+        <v>0</v>
+      </c>
+      <c r="H72" s="40">
+        <v>0</v>
+      </c>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+      <c r="V72" s="40"/>
+      <c r="W72" s="40"/>
+      <c r="X72" s="40"/>
+      <c r="Y72" s="40"/>
+      <c r="Z72" s="40"/>
+      <c r="AA72" s="40"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A73" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="40">
+        <v>8887</v>
+      </c>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G73" s="40">
+        <v>0</v>
+      </c>
+      <c r="H73" s="40">
+        <v>0</v>
+      </c>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="40"/>
+      <c r="U73" s="40"/>
+      <c r="V73" s="40"/>
+      <c r="W73" s="40"/>
+      <c r="X73" s="40"/>
+      <c r="Y73" s="40"/>
+      <c r="Z73" s="40"/>
+      <c r="AA73" s="40"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A74" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="40">
+        <v>88971</v>
+      </c>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G74" s="40">
+        <v>0</v>
+      </c>
+      <c r="H74" s="40">
+        <v>0</v>
+      </c>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="40"/>
+      <c r="T74" s="40"/>
+      <c r="U74" s="40"/>
+      <c r="V74" s="40"/>
+      <c r="W74" s="40"/>
+      <c r="X74" s="40"/>
+      <c r="Y74" s="40"/>
+      <c r="Z74" s="40"/>
+      <c r="AA74" s="40"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A75" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="40">
+        <v>22267</v>
+      </c>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G75" s="40">
+        <v>0</v>
+      </c>
+      <c r="H75" s="40">
+        <v>0</v>
+      </c>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="40"/>
+      <c r="W75" s="40"/>
+      <c r="X75" s="40"/>
+      <c r="Y75" s="40"/>
+      <c r="Z75" s="40"/>
+      <c r="AA75" s="40"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A76" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="40">
+        <v>5328</v>
+      </c>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="G76" s="40">
+        <v>0</v>
+      </c>
+      <c r="H76" s="40">
+        <v>0</v>
+      </c>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+      <c r="V76" s="40"/>
+      <c r="W76" s="40"/>
+      <c r="X76" s="40"/>
+      <c r="Y76" s="40"/>
+      <c r="Z76" s="40"/>
+      <c r="AA76" s="40"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A77" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="40">
+        <v>5411</v>
+      </c>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G77" s="40">
+        <v>0</v>
+      </c>
+      <c r="H77" s="40">
+        <v>0</v>
+      </c>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="40"/>
+      <c r="S77" s="40"/>
+      <c r="T77" s="40"/>
+      <c r="U77" s="40"/>
+      <c r="V77" s="40"/>
+      <c r="W77" s="40"/>
+      <c r="X77" s="40"/>
+      <c r="Y77" s="40"/>
+      <c r="Z77" s="40"/>
+      <c r="AA77" s="40"/>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A78" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="40">
+        <v>13259</v>
+      </c>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G78" s="40">
+        <v>0</v>
+      </c>
+      <c r="H78" s="40">
+        <v>0</v>
+      </c>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="40"/>
+      <c r="U78" s="40"/>
+      <c r="V78" s="40"/>
+      <c r="W78" s="40"/>
+      <c r="X78" s="40"/>
+      <c r="Y78" s="40"/>
+      <c r="Z78" s="40"/>
+      <c r="AA78" s="40"/>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A79" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="40">
+        <v>1921</v>
+      </c>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="G79" s="40">
+        <v>0</v>
+      </c>
+      <c r="H79" s="40">
+        <v>0</v>
+      </c>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="40"/>
+      <c r="R79" s="40"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="40"/>
+      <c r="U79" s="40"/>
+      <c r="V79" s="40"/>
+      <c r="W79" s="40"/>
+      <c r="X79" s="40"/>
+      <c r="Y79" s="40"/>
+      <c r="Z79" s="40"/>
+      <c r="AA79" s="40"/>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A80" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="40">
+        <v>13451</v>
+      </c>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G80" s="40">
+        <v>0</v>
+      </c>
+      <c r="H80" s="40">
+        <v>0</v>
+      </c>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="40"/>
+      <c r="U80" s="40"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="40"/>
+      <c r="X80" s="40"/>
+      <c r="Y80" s="40"/>
+      <c r="Z80" s="40"/>
+      <c r="AA80" s="40"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A81" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="40">
+        <v>7822</v>
+      </c>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G81" s="40">
+        <v>0</v>
+      </c>
+      <c r="H81" s="40">
+        <v>0</v>
+      </c>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="40"/>
+      <c r="U81" s="40"/>
+      <c r="V81" s="40"/>
+      <c r="W81" s="40"/>
+      <c r="X81" s="40"/>
+      <c r="Y81" s="40"/>
+      <c r="Z81" s="40"/>
+      <c r="AA81" s="40"/>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A82" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="40">
+        <v>10745</v>
+      </c>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G82" s="40">
+        <v>0</v>
+      </c>
+      <c r="H82" s="40">
+        <v>0</v>
+      </c>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="40"/>
+      <c r="T82" s="40"/>
+      <c r="U82" s="40"/>
+      <c r="V82" s="40"/>
+      <c r="W82" s="40"/>
+      <c r="X82" s="40"/>
+      <c r="Y82" s="40"/>
+      <c r="Z82" s="40"/>
+      <c r="AA82" s="40"/>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A83" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="40">
+        <v>167316</v>
+      </c>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="G83" s="40">
+        <v>0</v>
+      </c>
+      <c r="H83" s="40">
+        <v>0</v>
+      </c>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="40"/>
+      <c r="U83" s="40"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="40"/>
+      <c r="X83" s="40"/>
+      <c r="Y83" s="40"/>
+      <c r="Z83" s="40"/>
+      <c r="AA83" s="40"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A84" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="40">
+        <v>5592</v>
+      </c>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G84" s="40">
+        <v>0</v>
+      </c>
+      <c r="H84" s="40">
+        <v>0</v>
+      </c>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="40"/>
+      <c r="S84" s="40"/>
+      <c r="T84" s="40"/>
+      <c r="U84" s="40"/>
+      <c r="V84" s="40"/>
+      <c r="W84" s="40"/>
+      <c r="X84" s="40"/>
+      <c r="Y84" s="40"/>
+      <c r="Z84" s="40"/>
+      <c r="AA84" s="40"/>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A85" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="40">
+        <v>3553</v>
+      </c>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="G85" s="40">
+        <v>0</v>
+      </c>
+      <c r="H85" s="40">
+        <v>0</v>
+      </c>
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="40"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
+      <c r="Q85" s="40"/>
+      <c r="R85" s="40"/>
+      <c r="S85" s="40"/>
+      <c r="T85" s="40"/>
+      <c r="U85" s="40"/>
+      <c r="V85" s="40"/>
+      <c r="W85" s="40"/>
+      <c r="X85" s="40"/>
+      <c r="Y85" s="40"/>
+      <c r="Z85" s="40"/>
+      <c r="AA85" s="40"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A86" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="40">
+        <v>27563</v>
+      </c>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G86" s="40">
+        <v>0</v>
+      </c>
+      <c r="H86" s="40">
+        <v>0</v>
+      </c>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="40"/>
+      <c r="R86" s="40"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="40"/>
+      <c r="U86" s="40"/>
+      <c r="V86" s="40"/>
+      <c r="W86" s="40"/>
+      <c r="X86" s="40"/>
+      <c r="Y86" s="40"/>
+      <c r="Z86" s="40"/>
+      <c r="AA86" s="40"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A87" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="40">
+        <v>81488</v>
+      </c>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G87" s="40">
+        <v>0</v>
+      </c>
+      <c r="H87" s="40">
+        <v>0</v>
+      </c>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="40"/>
+      <c r="T87" s="40"/>
+      <c r="U87" s="40"/>
+      <c r="V87" s="40"/>
+      <c r="W87" s="40"/>
+      <c r="X87" s="40"/>
+      <c r="Y87" s="40"/>
+      <c r="Z87" s="40"/>
+      <c r="AA87" s="40"/>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A88" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="40">
+        <v>5764</v>
+      </c>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G88" s="40">
+        <v>0</v>
+      </c>
+      <c r="H88" s="40">
+        <v>0</v>
+      </c>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="40"/>
+      <c r="U88" s="40"/>
+      <c r="V88" s="40"/>
+      <c r="W88" s="40"/>
+      <c r="X88" s="40"/>
+      <c r="Y88" s="40"/>
+      <c r="Z88" s="40"/>
+      <c r="AA88" s="40"/>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A89" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" s="40">
+        <v>3372178</v>
+      </c>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="G89" s="40">
+        <v>24954</v>
+      </c>
+      <c r="H89" s="40">
+        <v>4462</v>
+      </c>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="40"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="40"/>
+      <c r="T89" s="40"/>
+      <c r="U89" s="40"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="40"/>
+      <c r="X89" s="40"/>
+      <c r="Y89" s="40"/>
+      <c r="Z89" s="40"/>
+      <c r="AA89" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3656,7 +7093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3959946-208A-0648-99C3-FA34EBA2C5C8}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4542,12 +7979,14 @@
   <dimension ref="A1:AA93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="10.83203125" style="24"/>
+    <col min="2" max="2" width="14.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="24"/>
     <col min="5" max="6" width="10.83203125" style="20"/>
   </cols>
   <sheetData>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/4_queue/20200125-early_vote/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6886F2AC-A3F6-9E46-8B10-8EE5C39A8E1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744BF259-7E41-2A40-8BB8-5A4B95140165}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="1040" windowWidth="26960" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1747,7 +1747,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1803,6 +1803,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3207,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A272C687-6191-E64E-B12D-E2FD4695954B}">
   <dimension ref="A1:AA89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3309,7 +3310,7 @@
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="24" t="s">
         <v>371</v>
       </c>
@@ -3319,7 +3320,10 @@
       <c r="H2" s="40">
         <v>0</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="41">
+        <f>H2/B2</f>
+        <v>0</v>
+      </c>
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
       <c r="L2" s="40"/>
@@ -3348,7 +3352,7 @@
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="24" t="s">
         <v>350</v>
       </c>
@@ -3358,7 +3362,10 @@
       <c r="H3" s="40">
         <v>0</v>
       </c>
-      <c r="I3" s="40"/>
+      <c r="I3" s="41">
+        <f t="shared" ref="I3:I66" si="0">H3/B3</f>
+        <v>0</v>
+      </c>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
       <c r="L3" s="40"/>
@@ -3387,7 +3394,7 @@
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="24" t="s">
         <v>370</v>
       </c>
@@ -3397,7 +3404,10 @@
       <c r="H4" s="40">
         <v>0</v>
       </c>
-      <c r="I4" s="40"/>
+      <c r="I4" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
@@ -3426,7 +3436,7 @@
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="24" t="s">
         <v>368</v>
       </c>
@@ -3436,7 +3446,10 @@
       <c r="H5" s="40">
         <v>0</v>
       </c>
-      <c r="I5" s="40"/>
+      <c r="I5" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
       <c r="L5" s="40"/>
@@ -3465,7 +3478,7 @@
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="24" t="s">
         <v>367</v>
       </c>
@@ -3475,7 +3488,10 @@
       <c r="H6" s="40">
         <v>0</v>
       </c>
-      <c r="I6" s="40"/>
+      <c r="I6" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
       <c r="L6" s="40"/>
@@ -3504,7 +3520,7 @@
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="24" t="s">
         <v>369</v>
       </c>
@@ -3514,7 +3530,10 @@
       <c r="H7" s="40">
         <v>0</v>
       </c>
-      <c r="I7" s="40"/>
+      <c r="I7" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
@@ -3543,7 +3562,7 @@
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="24" t="s">
         <v>372</v>
       </c>
@@ -3553,7 +3572,10 @@
       <c r="H8" s="40">
         <v>0</v>
       </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J8" s="40"/>
       <c r="K8" s="40"/>
       <c r="L8" s="40"/>
@@ -3582,7 +3604,7 @@
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="24" t="s">
         <v>372</v>
       </c>
@@ -3592,7 +3614,10 @@
       <c r="H9" s="40">
         <v>0</v>
       </c>
-      <c r="I9" s="40"/>
+      <c r="I9" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
@@ -3621,7 +3646,7 @@
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="24" t="s">
         <v>371</v>
       </c>
@@ -3631,7 +3656,10 @@
       <c r="H10" s="40">
         <v>0</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
       <c r="L10" s="40"/>
@@ -3660,7 +3688,7 @@
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="24" t="s">
         <v>350</v>
       </c>
@@ -3670,7 +3698,10 @@
       <c r="H11" s="40">
         <v>0</v>
       </c>
-      <c r="I11" s="40"/>
+      <c r="I11" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
@@ -3699,7 +3730,7 @@
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="24" t="s">
         <v>367</v>
       </c>
@@ -3709,7 +3740,10 @@
       <c r="H12" s="40">
         <v>0</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
       <c r="L12" s="40"/>
@@ -3738,7 +3772,7 @@
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="24" t="s">
         <v>369</v>
       </c>
@@ -3748,7 +3782,10 @@
       <c r="H13" s="40">
         <v>0</v>
       </c>
-      <c r="I13" s="40"/>
+      <c r="I13" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
       <c r="L13" s="40"/>
@@ -3777,7 +3814,7 @@
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="24" t="s">
         <v>367</v>
       </c>
@@ -3787,7 +3824,10 @@
       <c r="H14" s="40">
         <v>0</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
@@ -3816,7 +3856,7 @@
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="24" t="s">
         <v>370</v>
       </c>
@@ -3826,7 +3866,10 @@
       <c r="H15" s="40">
         <v>0</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
@@ -3855,7 +3898,7 @@
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="24" t="s">
         <v>368</v>
       </c>
@@ -3865,7 +3908,10 @@
       <c r="H16" s="40">
         <v>0</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
       <c r="L16" s="40"/>
@@ -3894,7 +3940,7 @@
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="24" t="s">
         <v>371</v>
       </c>
@@ -3904,7 +3950,10 @@
       <c r="H17" s="40">
         <v>0</v>
       </c>
-      <c r="I17" s="40"/>
+      <c r="I17" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
       <c r="L17" s="40"/>
@@ -3933,7 +3982,7 @@
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="24" t="s">
         <v>369</v>
       </c>
@@ -3943,7 +3992,10 @@
       <c r="H18" s="40">
         <v>0</v>
       </c>
-      <c r="I18" s="40"/>
+      <c r="I18" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
@@ -3972,7 +4024,7 @@
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="24" t="s">
         <v>367</v>
       </c>
@@ -3982,7 +4034,10 @@
       <c r="H19" s="40">
         <v>0</v>
       </c>
-      <c r="I19" s="40"/>
+      <c r="I19" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
@@ -4011,7 +4066,7 @@
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="24" t="s">
         <v>350</v>
       </c>
@@ -4021,7 +4076,10 @@
       <c r="H20" s="40">
         <v>0</v>
       </c>
-      <c r="I20" s="40"/>
+      <c r="I20" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
       <c r="L20" s="40"/>
@@ -4050,7 +4108,7 @@
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="24" t="s">
         <v>372</v>
       </c>
@@ -4060,7 +4118,10 @@
       <c r="H21" s="40">
         <v>0</v>
       </c>
-      <c r="I21" s="40"/>
+      <c r="I21" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
       <c r="L21" s="40"/>
@@ -4089,7 +4150,7 @@
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="24" t="s">
         <v>370</v>
       </c>
@@ -4099,7 +4160,10 @@
       <c r="H22" s="40">
         <v>0</v>
       </c>
-      <c r="I22" s="40"/>
+      <c r="I22" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
       <c r="L22" s="40"/>
@@ -4128,7 +4192,7 @@
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="24" t="s">
         <v>372</v>
       </c>
@@ -4138,7 +4202,10 @@
       <c r="H23" s="40">
         <v>0</v>
       </c>
-      <c r="I23" s="40"/>
+      <c r="I23" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J23" s="40"/>
       <c r="K23" s="40"/>
       <c r="L23" s="40"/>
@@ -4167,7 +4234,7 @@
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="24" t="s">
         <v>372</v>
       </c>
@@ -4177,7 +4244,10 @@
       <c r="H24" s="40">
         <v>0</v>
       </c>
-      <c r="I24" s="40"/>
+      <c r="I24" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J24" s="40"/>
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
@@ -4206,7 +4276,7 @@
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="24" t="s">
         <v>372</v>
       </c>
@@ -4216,7 +4286,10 @@
       <c r="H25" s="40">
         <v>0</v>
       </c>
-      <c r="I25" s="40"/>
+      <c r="I25" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J25" s="40"/>
       <c r="K25" s="40"/>
       <c r="L25" s="40"/>
@@ -4245,7 +4318,7 @@
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="24" t="s">
         <v>372</v>
       </c>
@@ -4255,7 +4328,10 @@
       <c r="H26" s="40">
         <v>0</v>
       </c>
-      <c r="I26" s="40"/>
+      <c r="I26" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J26" s="40"/>
       <c r="K26" s="40"/>
       <c r="L26" s="40"/>
@@ -4284,7 +4360,7 @@
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="24" t="s">
         <v>370</v>
       </c>
@@ -4294,7 +4370,10 @@
       <c r="H27" s="40">
         <v>0</v>
       </c>
-      <c r="I27" s="40"/>
+      <c r="I27" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
@@ -4323,7 +4402,7 @@
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="24" t="s">
         <v>351</v>
       </c>
@@ -4333,7 +4412,10 @@
       <c r="H28" s="40">
         <v>0</v>
       </c>
-      <c r="I28" s="40"/>
+      <c r="I28" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J28" s="40"/>
       <c r="K28" s="40"/>
       <c r="L28" s="40"/>
@@ -4362,7 +4444,7 @@
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="E29" s="41"/>
       <c r="F29" s="24" t="s">
         <v>372</v>
       </c>
@@ -4372,7 +4454,10 @@
       <c r="H29" s="40">
         <v>0</v>
       </c>
-      <c r="I29" s="40"/>
+      <c r="I29" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J29" s="40"/>
       <c r="K29" s="40"/>
       <c r="L29" s="40"/>
@@ -4401,7 +4486,7 @@
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="24" t="s">
         <v>368</v>
       </c>
@@ -4411,7 +4496,10 @@
       <c r="H30" s="40">
         <v>0</v>
       </c>
-      <c r="I30" s="40"/>
+      <c r="I30" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J30" s="40"/>
       <c r="K30" s="40"/>
       <c r="L30" s="40"/>
@@ -4440,7 +4528,7 @@
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
+      <c r="E31" s="41"/>
       <c r="F31" s="24" t="s">
         <v>367</v>
       </c>
@@ -4450,7 +4538,10 @@
       <c r="H31" s="40">
         <v>0</v>
       </c>
-      <c r="I31" s="40"/>
+      <c r="I31" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J31" s="40"/>
       <c r="K31" s="40"/>
       <c r="L31" s="40"/>
@@ -4479,7 +4570,7 @@
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
+      <c r="E32" s="41"/>
       <c r="F32" s="24" t="s">
         <v>371</v>
       </c>
@@ -4489,7 +4580,10 @@
       <c r="H32" s="40">
         <v>0</v>
       </c>
-      <c r="I32" s="40"/>
+      <c r="I32" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J32" s="40"/>
       <c r="K32" s="40"/>
       <c r="L32" s="40"/>
@@ -4518,7 +4612,7 @@
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
+      <c r="E33" s="41"/>
       <c r="F33" s="24" t="s">
         <v>369</v>
       </c>
@@ -4528,7 +4622,10 @@
       <c r="H33" s="40">
         <v>0</v>
       </c>
-      <c r="I33" s="40"/>
+      <c r="I33" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
       <c r="L33" s="40"/>
@@ -4557,7 +4654,7 @@
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="24" t="s">
         <v>367</v>
       </c>
@@ -4567,7 +4664,10 @@
       <c r="H34" s="40">
         <v>0</v>
       </c>
-      <c r="I34" s="40"/>
+      <c r="I34" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J34" s="40"/>
       <c r="K34" s="40"/>
       <c r="L34" s="40"/>
@@ -4596,7 +4696,7 @@
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
+      <c r="E35" s="41"/>
       <c r="F35" s="24" t="s">
         <v>369</v>
       </c>
@@ -4606,7 +4706,10 @@
       <c r="H35" s="40">
         <v>0</v>
       </c>
-      <c r="I35" s="40"/>
+      <c r="I35" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J35" s="40"/>
       <c r="K35" s="40"/>
       <c r="L35" s="40"/>
@@ -4635,7 +4738,7 @@
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="24" t="s">
         <v>368</v>
       </c>
@@ -4645,7 +4748,10 @@
       <c r="H36" s="40">
         <v>0</v>
       </c>
-      <c r="I36" s="40"/>
+      <c r="I36" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J36" s="40"/>
       <c r="K36" s="40"/>
       <c r="L36" s="40"/>
@@ -4674,7 +4780,7 @@
       </c>
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
+      <c r="E37" s="41"/>
       <c r="F37" s="24" t="s">
         <v>371</v>
       </c>
@@ -4684,7 +4790,10 @@
       <c r="H37" s="40">
         <v>0</v>
       </c>
-      <c r="I37" s="40"/>
+      <c r="I37" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J37" s="40"/>
       <c r="K37" s="40"/>
       <c r="L37" s="40"/>
@@ -4713,7 +4822,7 @@
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
+      <c r="E38" s="41"/>
       <c r="F38" s="24" t="s">
         <v>369</v>
       </c>
@@ -4723,7 +4832,10 @@
       <c r="H38" s="40">
         <v>0</v>
       </c>
-      <c r="I38" s="40"/>
+      <c r="I38" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J38" s="40"/>
       <c r="K38" s="40"/>
       <c r="L38" s="40"/>
@@ -4752,7 +4864,7 @@
       </c>
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
+      <c r="E39" s="41"/>
       <c r="F39" s="24" t="s">
         <v>371</v>
       </c>
@@ -4762,7 +4874,10 @@
       <c r="H39" s="40">
         <v>0</v>
       </c>
-      <c r="I39" s="40"/>
+      <c r="I39" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J39" s="40"/>
       <c r="K39" s="40"/>
       <c r="L39" s="40"/>
@@ -4791,7 +4906,7 @@
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
+      <c r="E40" s="41"/>
       <c r="F40" s="24" t="s">
         <v>368</v>
       </c>
@@ -4801,7 +4916,10 @@
       <c r="H40" s="40">
         <v>0</v>
       </c>
-      <c r="I40" s="40"/>
+      <c r="I40" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J40" s="40"/>
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
@@ -4830,7 +4948,7 @@
       </c>
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
+      <c r="E41" s="41"/>
       <c r="F41" s="24" t="s">
         <v>372</v>
       </c>
@@ -4840,7 +4958,10 @@
       <c r="H41" s="40">
         <v>0</v>
       </c>
-      <c r="I41" s="40"/>
+      <c r="I41" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J41" s="40"/>
       <c r="K41" s="40"/>
       <c r="L41" s="40"/>
@@ -4869,7 +4990,7 @@
       </c>
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
+      <c r="E42" s="41"/>
       <c r="F42" s="24" t="s">
         <v>369</v>
       </c>
@@ -4879,7 +5000,10 @@
       <c r="H42" s="40">
         <v>0</v>
       </c>
-      <c r="I42" s="40"/>
+      <c r="I42" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J42" s="40"/>
       <c r="K42" s="40"/>
       <c r="L42" s="40"/>
@@ -4908,7 +5032,7 @@
       </c>
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="24" t="s">
         <v>369</v>
       </c>
@@ -4918,7 +5042,10 @@
       <c r="H43" s="40">
         <v>0</v>
       </c>
-      <c r="I43" s="40"/>
+      <c r="I43" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J43" s="40"/>
       <c r="K43" s="40"/>
       <c r="L43" s="40"/>
@@ -4947,7 +5074,7 @@
       </c>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
+      <c r="E44" s="41"/>
       <c r="F44" s="24" t="s">
         <v>369</v>
       </c>
@@ -4957,7 +5084,10 @@
       <c r="H44" s="40">
         <v>0</v>
       </c>
-      <c r="I44" s="40"/>
+      <c r="I44" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J44" s="40"/>
       <c r="K44" s="40"/>
       <c r="L44" s="40"/>
@@ -4986,7 +5116,7 @@
       </c>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
+      <c r="E45" s="41"/>
       <c r="F45" s="24" t="s">
         <v>368</v>
       </c>
@@ -4996,7 +5126,10 @@
       <c r="H45" s="40">
         <v>0</v>
       </c>
-      <c r="I45" s="40"/>
+      <c r="I45" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J45" s="40"/>
       <c r="K45" s="40"/>
       <c r="L45" s="40"/>
@@ -5025,7 +5158,7 @@
       </c>
       <c r="C46" s="40"/>
       <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
+      <c r="E46" s="41"/>
       <c r="F46" s="24" t="s">
         <v>368</v>
       </c>
@@ -5035,7 +5168,10 @@
       <c r="H46" s="40">
         <v>0</v>
       </c>
-      <c r="I46" s="40"/>
+      <c r="I46" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J46" s="40"/>
       <c r="K46" s="40"/>
       <c r="L46" s="40"/>
@@ -5064,7 +5200,7 @@
       </c>
       <c r="C47" s="40"/>
       <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
+      <c r="E47" s="41"/>
       <c r="F47" s="24" t="s">
         <v>372</v>
       </c>
@@ -5074,7 +5210,10 @@
       <c r="H47" s="40">
         <v>0</v>
       </c>
-      <c r="I47" s="40"/>
+      <c r="I47" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J47" s="40"/>
       <c r="K47" s="40"/>
       <c r="L47" s="40"/>
@@ -5103,7 +5242,7 @@
       </c>
       <c r="C48" s="40"/>
       <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
+      <c r="E48" s="41"/>
       <c r="F48" s="24" t="s">
         <v>369</v>
       </c>
@@ -5113,7 +5252,10 @@
       <c r="H48" s="40">
         <v>0</v>
       </c>
-      <c r="I48" s="40"/>
+      <c r="I48" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J48" s="40"/>
       <c r="K48" s="40"/>
       <c r="L48" s="40"/>
@@ -5142,7 +5284,7 @@
       </c>
       <c r="C49" s="40"/>
       <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
+      <c r="E49" s="41"/>
       <c r="F49" s="24" t="s">
         <v>367</v>
       </c>
@@ -5152,7 +5294,10 @@
       <c r="H49" s="40">
         <v>0</v>
       </c>
-      <c r="I49" s="40"/>
+      <c r="I49" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J49" s="40"/>
       <c r="K49" s="40"/>
       <c r="L49" s="40"/>
@@ -5181,7 +5326,7 @@
       </c>
       <c r="C50" s="40"/>
       <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
+      <c r="E50" s="41"/>
       <c r="F50" s="24" t="s">
         <v>367</v>
       </c>
@@ -5191,7 +5336,10 @@
       <c r="H50" s="40">
         <v>0</v>
       </c>
-      <c r="I50" s="40"/>
+      <c r="I50" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J50" s="40"/>
       <c r="K50" s="40"/>
       <c r="L50" s="40"/>
@@ -5220,7 +5368,7 @@
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="24" t="s">
         <v>372</v>
       </c>
@@ -5230,7 +5378,10 @@
       <c r="H51" s="40">
         <v>0</v>
       </c>
-      <c r="I51" s="40"/>
+      <c r="I51" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J51" s="40"/>
       <c r="K51" s="40"/>
       <c r="L51" s="40"/>
@@ -5259,7 +5410,7 @@
       </c>
       <c r="C52" s="40"/>
       <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
+      <c r="E52" s="41"/>
       <c r="F52" s="24" t="s">
         <v>369</v>
       </c>
@@ -5269,7 +5420,10 @@
       <c r="H52" s="40">
         <v>0</v>
       </c>
-      <c r="I52" s="40"/>
+      <c r="I52" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J52" s="40"/>
       <c r="K52" s="40"/>
       <c r="L52" s="40"/>
@@ -5298,7 +5452,7 @@
       </c>
       <c r="C53" s="40"/>
       <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
+      <c r="E53" s="41"/>
       <c r="F53" s="24" t="s">
         <v>372</v>
       </c>
@@ -5308,7 +5462,10 @@
       <c r="H53" s="40">
         <v>0</v>
       </c>
-      <c r="I53" s="40"/>
+      <c r="I53" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J53" s="40"/>
       <c r="K53" s="40"/>
       <c r="L53" s="40"/>
@@ -5337,7 +5494,7 @@
       </c>
       <c r="C54" s="40"/>
       <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="24" t="s">
         <v>369</v>
       </c>
@@ -5347,7 +5504,10 @@
       <c r="H54" s="40">
         <v>0</v>
       </c>
-      <c r="I54" s="40"/>
+      <c r="I54" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J54" s="40"/>
       <c r="K54" s="40"/>
       <c r="L54" s="40"/>
@@ -5376,7 +5536,7 @@
       </c>
       <c r="C55" s="40"/>
       <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
+      <c r="E55" s="41"/>
       <c r="F55" s="24" t="s">
         <v>368</v>
       </c>
@@ -5386,7 +5546,10 @@
       <c r="H55" s="40">
         <v>0</v>
       </c>
-      <c r="I55" s="40"/>
+      <c r="I55" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J55" s="40"/>
       <c r="K55" s="40"/>
       <c r="L55" s="40"/>
@@ -5415,7 +5578,7 @@
       </c>
       <c r="C56" s="40"/>
       <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
+      <c r="E56" s="41"/>
       <c r="F56" s="24" t="s">
         <v>372</v>
       </c>
@@ -5425,7 +5588,10 @@
       <c r="H56" s="40">
         <v>0</v>
       </c>
-      <c r="I56" s="40"/>
+      <c r="I56" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J56" s="40"/>
       <c r="K56" s="40"/>
       <c r="L56" s="40"/>
@@ -5454,7 +5620,7 @@
       </c>
       <c r="C57" s="40"/>
       <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
+      <c r="E57" s="41"/>
       <c r="F57" s="24" t="s">
         <v>370</v>
       </c>
@@ -5464,7 +5630,10 @@
       <c r="H57" s="40">
         <v>0</v>
       </c>
-      <c r="I57" s="40"/>
+      <c r="I57" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J57" s="40"/>
       <c r="K57" s="40"/>
       <c r="L57" s="40"/>
@@ -5493,7 +5662,7 @@
       </c>
       <c r="C58" s="40"/>
       <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
+      <c r="E58" s="41"/>
       <c r="F58" s="24" t="s">
         <v>368</v>
       </c>
@@ -5503,7 +5672,10 @@
       <c r="H58" s="40">
         <v>0</v>
       </c>
-      <c r="I58" s="40"/>
+      <c r="I58" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J58" s="40"/>
       <c r="K58" s="40"/>
       <c r="L58" s="40"/>
@@ -5532,7 +5704,7 @@
       </c>
       <c r="C59" s="40"/>
       <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="24" t="s">
         <v>367</v>
       </c>
@@ -5542,7 +5714,10 @@
       <c r="H59" s="40">
         <v>0</v>
       </c>
-      <c r="I59" s="40"/>
+      <c r="I59" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J59" s="40"/>
       <c r="K59" s="40"/>
       <c r="L59" s="40"/>
@@ -5571,7 +5746,7 @@
       </c>
       <c r="C60" s="40"/>
       <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
+      <c r="E60" s="41"/>
       <c r="F60" s="24" t="s">
         <v>369</v>
       </c>
@@ -5581,7 +5756,10 @@
       <c r="H60" s="40">
         <v>0</v>
       </c>
-      <c r="I60" s="40"/>
+      <c r="I60" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
       <c r="L60" s="40"/>
@@ -5610,7 +5788,7 @@
       </c>
       <c r="C61" s="40"/>
       <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
+      <c r="E61" s="41"/>
       <c r="F61" s="24" t="s">
         <v>368</v>
       </c>
@@ -5620,7 +5798,10 @@
       <c r="H61" s="40">
         <v>0</v>
       </c>
-      <c r="I61" s="40"/>
+      <c r="I61" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J61" s="40"/>
       <c r="K61" s="40"/>
       <c r="L61" s="40"/>
@@ -5649,7 +5830,7 @@
       </c>
       <c r="C62" s="40"/>
       <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
+      <c r="E62" s="41"/>
       <c r="F62" s="24" t="s">
         <v>370</v>
       </c>
@@ -5659,7 +5840,10 @@
       <c r="H62" s="40">
         <v>0</v>
       </c>
-      <c r="I62" s="40"/>
+      <c r="I62" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J62" s="40"/>
       <c r="K62" s="40"/>
       <c r="L62" s="40"/>
@@ -5688,7 +5872,7 @@
       </c>
       <c r="C63" s="40"/>
       <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
+      <c r="E63" s="41"/>
       <c r="F63" s="24" t="s">
         <v>351</v>
       </c>
@@ -5698,7 +5882,10 @@
       <c r="H63" s="40">
         <v>0</v>
       </c>
-      <c r="I63" s="40"/>
+      <c r="I63" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J63" s="40"/>
       <c r="K63" s="40"/>
       <c r="L63" s="40"/>
@@ -5727,7 +5914,7 @@
       </c>
       <c r="C64" s="40"/>
       <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
+      <c r="E64" s="41"/>
       <c r="F64" s="24" t="s">
         <v>368</v>
       </c>
@@ -5737,7 +5924,10 @@
       <c r="H64" s="40">
         <v>0</v>
       </c>
-      <c r="I64" s="40"/>
+      <c r="I64" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J64" s="40"/>
       <c r="K64" s="40"/>
       <c r="L64" s="40"/>
@@ -5766,7 +5956,7 @@
       </c>
       <c r="C65" s="40"/>
       <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
+      <c r="E65" s="41"/>
       <c r="F65" s="24" t="s">
         <v>369</v>
       </c>
@@ -5776,7 +5966,10 @@
       <c r="H65" s="40">
         <v>0</v>
       </c>
-      <c r="I65" s="40"/>
+      <c r="I65" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J65" s="40"/>
       <c r="K65" s="40"/>
       <c r="L65" s="40"/>
@@ -5805,7 +5998,7 @@
       </c>
       <c r="C66" s="40"/>
       <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
+      <c r="E66" s="41"/>
       <c r="F66" s="24" t="s">
         <v>369</v>
       </c>
@@ -5815,7 +6008,10 @@
       <c r="H66" s="40">
         <v>0</v>
       </c>
-      <c r="I66" s="40"/>
+      <c r="I66" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J66" s="40"/>
       <c r="K66" s="40"/>
       <c r="L66" s="40"/>
@@ -5844,7 +6040,7 @@
       </c>
       <c r="C67" s="40"/>
       <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
+      <c r="E67" s="41"/>
       <c r="F67" s="24" t="s">
         <v>372</v>
       </c>
@@ -5854,7 +6050,10 @@
       <c r="H67" s="40">
         <v>0</v>
       </c>
-      <c r="I67" s="40"/>
+      <c r="I67" s="41">
+        <f t="shared" ref="I67:I89" si="1">H67/B67</f>
+        <v>0</v>
+      </c>
       <c r="J67" s="40"/>
       <c r="K67" s="40"/>
       <c r="L67" s="40"/>
@@ -5883,7 +6082,7 @@
       </c>
       <c r="C68" s="40"/>
       <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
+      <c r="E68" s="41"/>
       <c r="F68" s="24" t="s">
         <v>369</v>
       </c>
@@ -5893,7 +6092,10 @@
       <c r="H68" s="40">
         <v>0</v>
       </c>
-      <c r="I68" s="40"/>
+      <c r="I68" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J68" s="40"/>
       <c r="K68" s="40"/>
       <c r="L68" s="40"/>
@@ -5922,7 +6124,7 @@
       </c>
       <c r="C69" s="40"/>
       <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
+      <c r="E69" s="41"/>
       <c r="F69" s="24" t="s">
         <v>368</v>
       </c>
@@ -5932,7 +6134,10 @@
       <c r="H69" s="40">
         <v>0</v>
       </c>
-      <c r="I69" s="40"/>
+      <c r="I69" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J69" s="40"/>
       <c r="K69" s="40"/>
       <c r="L69" s="40"/>
@@ -5961,7 +6166,7 @@
       </c>
       <c r="C70" s="40"/>
       <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
+      <c r="E70" s="41"/>
       <c r="F70" s="24" t="s">
         <v>371</v>
       </c>
@@ -5971,7 +6176,10 @@
       <c r="H70" s="40">
         <v>0</v>
       </c>
-      <c r="I70" s="40"/>
+      <c r="I70" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J70" s="40"/>
       <c r="K70" s="40"/>
       <c r="L70" s="40"/>
@@ -6000,7 +6208,7 @@
       </c>
       <c r="C71" s="40"/>
       <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
+      <c r="E71" s="41"/>
       <c r="F71" s="24" t="s">
         <v>350</v>
       </c>
@@ -6010,7 +6218,10 @@
       <c r="H71" s="40">
         <v>0</v>
       </c>
-      <c r="I71" s="40"/>
+      <c r="I71" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J71" s="40"/>
       <c r="K71" s="40"/>
       <c r="L71" s="40"/>
@@ -6039,7 +6250,7 @@
       </c>
       <c r="C72" s="40"/>
       <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
+      <c r="E72" s="41"/>
       <c r="F72" s="24" t="s">
         <v>367</v>
       </c>
@@ -6049,7 +6260,10 @@
       <c r="H72" s="40">
         <v>0</v>
       </c>
-      <c r="I72" s="40"/>
+      <c r="I72" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J72" s="40"/>
       <c r="K72" s="40"/>
       <c r="L72" s="40"/>
@@ -6078,7 +6292,7 @@
       </c>
       <c r="C73" s="40"/>
       <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
+      <c r="E73" s="41"/>
       <c r="F73" s="24" t="s">
         <v>372</v>
       </c>
@@ -6088,7 +6302,10 @@
       <c r="H73" s="40">
         <v>0</v>
       </c>
-      <c r="I73" s="40"/>
+      <c r="I73" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J73" s="40"/>
       <c r="K73" s="40"/>
       <c r="L73" s="40"/>
@@ -6117,7 +6334,7 @@
       </c>
       <c r="C74" s="40"/>
       <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
+      <c r="E74" s="41"/>
       <c r="F74" s="24" t="s">
         <v>367</v>
       </c>
@@ -6127,7 +6344,10 @@
       <c r="H74" s="40">
         <v>0</v>
       </c>
-      <c r="I74" s="40"/>
+      <c r="I74" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J74" s="40"/>
       <c r="K74" s="40"/>
       <c r="L74" s="40"/>
@@ -6156,7 +6376,7 @@
       </c>
       <c r="C75" s="40"/>
       <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
+      <c r="E75" s="41"/>
       <c r="F75" s="24" t="s">
         <v>372</v>
       </c>
@@ -6166,7 +6386,10 @@
       <c r="H75" s="40">
         <v>0</v>
       </c>
-      <c r="I75" s="40"/>
+      <c r="I75" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J75" s="40"/>
       <c r="K75" s="40"/>
       <c r="L75" s="40"/>
@@ -6195,7 +6418,7 @@
       </c>
       <c r="C76" s="40"/>
       <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
+      <c r="E76" s="41"/>
       <c r="F76" s="24" t="s">
         <v>370</v>
       </c>
@@ -6205,7 +6428,10 @@
       <c r="H76" s="40">
         <v>0</v>
       </c>
-      <c r="I76" s="40"/>
+      <c r="I76" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J76" s="40"/>
       <c r="K76" s="40"/>
       <c r="L76" s="40"/>
@@ -6234,7 +6460,7 @@
       </c>
       <c r="C77" s="40"/>
       <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
+      <c r="E77" s="41"/>
       <c r="F77" s="24" t="s">
         <v>369</v>
       </c>
@@ -6244,7 +6470,10 @@
       <c r="H77" s="40">
         <v>0</v>
       </c>
-      <c r="I77" s="40"/>
+      <c r="I77" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J77" s="40"/>
       <c r="K77" s="40"/>
       <c r="L77" s="40"/>
@@ -6273,7 +6502,7 @@
       </c>
       <c r="C78" s="40"/>
       <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
+      <c r="E78" s="41"/>
       <c r="F78" s="24" t="s">
         <v>367</v>
       </c>
@@ -6283,7 +6512,10 @@
       <c r="H78" s="40">
         <v>0</v>
       </c>
-      <c r="I78" s="40"/>
+      <c r="I78" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J78" s="40"/>
       <c r="K78" s="40"/>
       <c r="L78" s="40"/>
@@ -6312,7 +6544,7 @@
       </c>
       <c r="C79" s="40"/>
       <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
+      <c r="E79" s="41"/>
       <c r="F79" s="24" t="s">
         <v>370</v>
       </c>
@@ -6322,7 +6554,10 @@
       <c r="H79" s="40">
         <v>0</v>
       </c>
-      <c r="I79" s="40"/>
+      <c r="I79" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J79" s="40"/>
       <c r="K79" s="40"/>
       <c r="L79" s="40"/>
@@ -6351,7 +6586,7 @@
       </c>
       <c r="C80" s="40"/>
       <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
+      <c r="E80" s="41"/>
       <c r="F80" s="24" t="s">
         <v>372</v>
       </c>
@@ -6361,7 +6596,10 @@
       <c r="H80" s="40">
         <v>0</v>
       </c>
-      <c r="I80" s="40"/>
+      <c r="I80" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J80" s="40"/>
       <c r="K80" s="40"/>
       <c r="L80" s="40"/>
@@ -6390,7 +6628,7 @@
       </c>
       <c r="C81" s="40"/>
       <c r="D81" s="40"/>
-      <c r="E81" s="40"/>
+      <c r="E81" s="41"/>
       <c r="F81" s="24" t="s">
         <v>367</v>
       </c>
@@ -6400,7 +6638,10 @@
       <c r="H81" s="40">
         <v>0</v>
       </c>
-      <c r="I81" s="40"/>
+      <c r="I81" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J81" s="40"/>
       <c r="K81" s="40"/>
       <c r="L81" s="40"/>
@@ -6429,7 +6670,7 @@
       </c>
       <c r="C82" s="40"/>
       <c r="D82" s="40"/>
-      <c r="E82" s="40"/>
+      <c r="E82" s="41"/>
       <c r="F82" s="24" t="s">
         <v>372</v>
       </c>
@@ -6439,7 +6680,10 @@
       <c r="H82" s="40">
         <v>0</v>
       </c>
-      <c r="I82" s="40"/>
+      <c r="I82" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J82" s="40"/>
       <c r="K82" s="40"/>
       <c r="L82" s="40"/>
@@ -6468,7 +6712,7 @@
       </c>
       <c r="C83" s="40"/>
       <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
+      <c r="E83" s="41"/>
       <c r="F83" s="24" t="s">
         <v>350</v>
       </c>
@@ -6478,7 +6722,10 @@
       <c r="H83" s="40">
         <v>0</v>
       </c>
-      <c r="I83" s="40"/>
+      <c r="I83" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J83" s="40"/>
       <c r="K83" s="40"/>
       <c r="L83" s="40"/>
@@ -6507,7 +6754,7 @@
       </c>
       <c r="C84" s="40"/>
       <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
+      <c r="E84" s="41"/>
       <c r="F84" s="24" t="s">
         <v>372</v>
       </c>
@@ -6517,7 +6764,10 @@
       <c r="H84" s="40">
         <v>0</v>
       </c>
-      <c r="I84" s="40"/>
+      <c r="I84" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J84" s="40"/>
       <c r="K84" s="40"/>
       <c r="L84" s="40"/>
@@ -6546,7 +6796,7 @@
       </c>
       <c r="C85" s="40"/>
       <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
+      <c r="E85" s="41"/>
       <c r="F85" s="24" t="s">
         <v>370</v>
       </c>
@@ -6556,7 +6806,10 @@
       <c r="H85" s="40">
         <v>0</v>
       </c>
-      <c r="I85" s="40"/>
+      <c r="I85" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J85" s="40"/>
       <c r="K85" s="40"/>
       <c r="L85" s="40"/>
@@ -6585,7 +6838,7 @@
       </c>
       <c r="C86" s="40"/>
       <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
+      <c r="E86" s="41"/>
       <c r="F86" s="24" t="s">
         <v>372</v>
       </c>
@@ -6595,7 +6848,10 @@
       <c r="H86" s="40">
         <v>0</v>
       </c>
-      <c r="I86" s="40"/>
+      <c r="I86" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J86" s="40"/>
       <c r="K86" s="40"/>
       <c r="L86" s="40"/>
@@ -6624,7 +6880,7 @@
       </c>
       <c r="C87" s="40"/>
       <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
+      <c r="E87" s="41"/>
       <c r="F87" s="24" t="s">
         <v>367</v>
       </c>
@@ -6634,7 +6890,10 @@
       <c r="H87" s="40">
         <v>0</v>
       </c>
-      <c r="I87" s="40"/>
+      <c r="I87" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J87" s="40"/>
       <c r="K87" s="40"/>
       <c r="L87" s="40"/>
@@ -6663,7 +6922,7 @@
       </c>
       <c r="C88" s="40"/>
       <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
+      <c r="E88" s="41"/>
       <c r="F88" s="24" t="s">
         <v>369</v>
       </c>
@@ -6673,7 +6932,10 @@
       <c r="H88" s="40">
         <v>0</v>
       </c>
-      <c r="I88" s="40"/>
+      <c r="I88" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J88" s="40"/>
       <c r="K88" s="40"/>
       <c r="L88" s="40"/>
@@ -6700,9 +6962,16 @@
       <c r="B89" s="40">
         <v>3372178</v>
       </c>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
+      <c r="C89" s="40">
+        <v>24954</v>
+      </c>
+      <c r="D89" s="40">
+        <v>4462</v>
+      </c>
+      <c r="E89" s="41">
+        <f>D89/B89</f>
+        <v>1.3231804489561346E-3</v>
+      </c>
       <c r="F89" s="24" t="s">
         <v>352</v>
       </c>
@@ -6712,7 +6981,10 @@
       <c r="H89" s="40">
         <v>4462</v>
       </c>
-      <c r="I89" s="40"/>
+      <c r="I89" s="41">
+        <f t="shared" si="1"/>
+        <v>1.3231804489561346E-3</v>
+      </c>
       <c r="J89" s="40"/>
       <c r="K89" s="40"/>
       <c r="L89" s="40"/>
@@ -7979,7 +8251,7 @@
   <dimension ref="A1:AA93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/4_queue/20200125-early_vote/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744BF259-7E41-2A40-8BB8-5A4B95140165}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ADEDD5-ACE8-DE4B-BC2E-42459244A2EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="1040" windowWidth="26960" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020_p_counties" sheetId="14" r:id="rId1"/>
-    <sheet name="2018age" sheetId="11" r:id="rId2"/>
-    <sheet name="2018counties" sheetId="10" r:id="rId3"/>
-    <sheet name="2018regions" sheetId="9" r:id="rId4"/>
-    <sheet name="2018primary" sheetId="8" r:id="rId5"/>
-    <sheet name="2018rankings" sheetId="13" r:id="rId6"/>
-    <sheet name="2016where" sheetId="1" r:id="rId7"/>
-    <sheet name="2016who" sheetId="2" r:id="rId8"/>
-    <sheet name="2016when" sheetId="3" r:id="rId9"/>
-    <sheet name="2016lean" sheetId="4" r:id="rId10"/>
-    <sheet name="2014weekly" sheetId="12" r:id="rId11"/>
+    <sheet name="weekly" sheetId="12" r:id="rId2"/>
+    <sheet name="2020" sheetId="11" r:id="rId3"/>
+    <sheet name="2018counties" sheetId="10" r:id="rId4"/>
+    <sheet name="2018regions" sheetId="9" r:id="rId5"/>
+    <sheet name="2018primary" sheetId="8" r:id="rId6"/>
+    <sheet name="2018rankings" sheetId="13" r:id="rId7"/>
+    <sheet name="2016where" sheetId="1" r:id="rId8"/>
+    <sheet name="2016who" sheetId="2" r:id="rId9"/>
+    <sheet name="2016when" sheetId="3" r:id="rId10"/>
+    <sheet name="2016lean" sheetId="4" r:id="rId11"/>
     <sheet name="source" sheetId="6" r:id="rId12"/>
     <sheet name="layout" sheetId="7" r:id="rId13"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="507">
   <si>
     <t>countyname</t>
   </si>
@@ -1545,6 +1545,24 @@
   </si>
   <si>
     <t>Minnesota early voting by county, 2020 Democratic primary</t>
+  </si>
+  <si>
+    <t>Total ballots requested</t>
+  </si>
+  <si>
+    <t>DFL ballots requested</t>
+  </si>
+  <si>
+    <t>Republican ballots requested</t>
+  </si>
+  <si>
+    <t>Total ballots accepted</t>
+  </si>
+  <si>
+    <t>DFL ballots accepted</t>
+  </si>
+  <si>
+    <t>Republican ballots accepted</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1574,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-10409]#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1665,6 +1683,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1747,7 +1772,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1804,6 +1829,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3209,7 +3235,7 @@
   <dimension ref="A1:AA89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6985,7 +7011,9 @@
         <f t="shared" si="1"/>
         <v>1.3231804489561346E-3</v>
       </c>
-      <c r="J89" s="40"/>
+      <c r="J89" s="40">
+        <v>5896</v>
+      </c>
       <c r="K89" s="40"/>
       <c r="L89" s="40"/>
       <c r="M89" s="40"/>
@@ -7010,6 +7038,1046 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:S41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J8:J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <f>DATEVALUE(A3&amp;"/"&amp;B3&amp;"/2016")</f>
+        <v>42619</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f>WEEKNUM(C3)</f>
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C41" si="0">DATEVALUE(A4&amp;"/"&amp;B4&amp;"/2016")</f>
+        <v>42625</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E41" si="1">WEEKNUM(C4)</f>
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>42626</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>42627</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>42628</v>
+      </c>
+      <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>42629</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>42632</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="4">
+        <v>19693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>42633</v>
+      </c>
+      <c r="D10">
+        <v>67</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="4">
+        <v>35324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>42634</v>
+      </c>
+      <c r="D11">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="4">
+        <v>45298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>42635</v>
+      </c>
+      <c r="D12">
+        <v>94</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="4">
+        <v>98057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>42636</v>
+      </c>
+      <c r="D13">
+        <v>1045</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>42639</v>
+      </c>
+      <c r="D14">
+        <v>2067</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>42640</v>
+      </c>
+      <c r="D15">
+        <v>4081</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>42641</v>
+      </c>
+      <c r="D16">
+        <v>4375</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>42642</v>
+      </c>
+      <c r="D17">
+        <v>3645</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>42643</v>
+      </c>
+      <c r="D18">
+        <v>5525</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>42645</v>
+      </c>
+      <c r="D19">
+        <v>3421</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>42646</v>
+      </c>
+      <c r="D20">
+        <v>7248</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>42647</v>
+      </c>
+      <c r="D21">
+        <v>5896</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>42648</v>
+      </c>
+      <c r="D22">
+        <v>5309</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>42649</v>
+      </c>
+      <c r="D23">
+        <v>5899</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>42650</v>
+      </c>
+      <c r="D24">
+        <v>7509</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>42651</v>
+      </c>
+      <c r="D25">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>42652</v>
+      </c>
+      <c r="D26">
+        <v>3710</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>42653</v>
+      </c>
+      <c r="D27">
+        <v>4939</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>42654</v>
+      </c>
+      <c r="D28">
+        <v>6576</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>42655</v>
+      </c>
+      <c r="D29">
+        <v>11034</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="F29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>42656</v>
+      </c>
+      <c r="D30">
+        <v>8336</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="F30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>42657</v>
+      </c>
+      <c r="D31">
+        <v>10473</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>42658</v>
+      </c>
+      <c r="D32">
+        <v>230</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="F32" t="s">
+        <v>148</v>
+      </c>
+      <c r="O32" t="s">
+        <v>343</v>
+      </c>
+      <c r="P32">
+        <v>1425</v>
+      </c>
+      <c r="R32" t="s">
+        <v>494</v>
+      </c>
+      <c r="S32">
+        <v>15213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>42659</v>
+      </c>
+      <c r="D33">
+        <v>6044</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>149</v>
+      </c>
+      <c r="O33" t="s">
+        <v>344</v>
+      </c>
+      <c r="P33">
+        <v>19693</v>
+      </c>
+      <c r="R33" t="s">
+        <v>495</v>
+      </c>
+      <c r="S33">
+        <v>33298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>42660</v>
+      </c>
+      <c r="D34">
+        <v>13023</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34">
+        <v>7573</v>
+      </c>
+      <c r="O34" t="s">
+        <v>345</v>
+      </c>
+      <c r="P34">
+        <v>35324</v>
+      </c>
+      <c r="R34" t="s">
+        <v>496</v>
+      </c>
+      <c r="S34">
+        <v>42146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>42661</v>
+      </c>
+      <c r="D35">
+        <v>12254</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>149</v>
+      </c>
+      <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35">
+        <v>30110</v>
+      </c>
+      <c r="O35" t="s">
+        <v>346</v>
+      </c>
+      <c r="P35">
+        <v>45298</v>
+      </c>
+      <c r="R35" t="s">
+        <v>497</v>
+      </c>
+      <c r="S35">
+        <v>66474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>42662</v>
+      </c>
+      <c r="D36">
+        <v>12203</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36">
+        <v>27408</v>
+      </c>
+      <c r="O36" t="s">
+        <v>347</v>
+      </c>
+      <c r="P36">
+        <v>98057</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>42663</v>
+      </c>
+      <c r="D37">
+        <v>12247</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" t="s">
+        <v>256</v>
+      </c>
+      <c r="J37">
+        <v>42693</v>
+      </c>
+      <c r="O37" t="s">
+        <v>348</v>
+      </c>
+      <c r="P37">
+        <v>124844</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>42664</v>
+      </c>
+      <c r="D38">
+        <v>15909</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>149</v>
+      </c>
+      <c r="I38" t="s">
+        <v>257</v>
+      </c>
+      <c r="J38">
+        <v>67073</v>
+      </c>
+      <c r="O38" t="s">
+        <v>349</v>
+      </c>
+      <c r="P38">
+        <v>206871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>42665</v>
+      </c>
+      <c r="D39">
+        <v>1437</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>149</v>
+      </c>
+      <c r="I39" t="s">
+        <v>258</v>
+      </c>
+      <c r="J39">
+        <v>24940</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>42666</v>
+      </c>
+      <c r="D40">
+        <v>6580</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>24</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>42667</v>
+      </c>
+      <c r="D41">
+        <v>18360</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
@@ -7358,128 +8426,6 @@
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3959946-208A-0648-99C3-FA34EBA2C5C8}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3818</v>
-      </c>
-      <c r="C2">
-        <v>19693</v>
-      </c>
-      <c r="D2">
-        <v>11353</v>
-      </c>
-      <c r="E2" s="39">
-        <v>4462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>8892</v>
-      </c>
-      <c r="C3">
-        <v>35324</v>
-      </c>
-      <c r="D3">
-        <v>31169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>13880</v>
-      </c>
-      <c r="C4">
-        <v>45298</v>
-      </c>
-      <c r="D4">
-        <v>42916</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>18641</v>
-      </c>
-      <c r="C5">
-        <v>98057</v>
-      </c>
-      <c r="D5">
-        <v>74222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>37173</v>
-      </c>
-      <c r="C6">
-        <v>51751</v>
-      </c>
-      <c r="D6">
-        <v>90249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>65540</v>
-      </c>
-      <c r="C7">
-        <v>165863</v>
-      </c>
-      <c r="D7">
-        <v>160329</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8215,30 +9161,123 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892CC54F-C539-994B-B731-01DCF9A1FC45}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3959946-208A-0648-99C3-FA34EBA2C5C8}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
-        <v>301</v>
+        <v>489</v>
       </c>
       <c r="C1" t="s">
-        <v>302</v>
+        <v>488</v>
       </c>
       <c r="D1" t="s">
-        <v>307</v>
+        <v>490</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3818</v>
+      </c>
+      <c r="C2">
+        <v>19693</v>
+      </c>
+      <c r="D2">
+        <v>11353</v>
+      </c>
+      <c r="E2" s="39">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8892</v>
+      </c>
+      <c r="C3">
+        <v>35324</v>
+      </c>
+      <c r="D3">
+        <v>31169</v>
+      </c>
+      <c r="E3" s="39">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>13880</v>
+      </c>
+      <c r="C4">
+        <v>45298</v>
+      </c>
+      <c r="D4">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>18641</v>
+      </c>
+      <c r="C5">
+        <v>98057</v>
+      </c>
+      <c r="D5">
+        <v>74222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>37173</v>
+      </c>
+      <c r="C6">
+        <v>51751</v>
+      </c>
+      <c r="D6">
+        <v>90249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>65540</v>
+      </c>
+      <c r="C7">
+        <v>165863</v>
+      </c>
+      <c r="D7">
+        <v>160329</v>
       </c>
     </row>
   </sheetData>
@@ -8247,6 +9286,78 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892CC54F-C539-994B-B731-01DCF9A1FC45}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2" s="42">
+        <v>34177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" s="42">
+        <v>29530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="42">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>504</v>
+      </c>
+      <c r="B5" s="42">
+        <v>10358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="B6" s="42">
+        <v>8777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7" s="42">
+        <v>1578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4EA2C9-9ED6-A943-AB1C-F5E8A28BF868}">
   <dimension ref="A1:AA93"/>
   <sheetViews>
@@ -15835,12 +16946,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34709779-4AE9-184C-8747-61ED2F71A71A}">
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D4:D9"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16248,7 +17359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
@@ -17397,7 +18508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EC1AA0-E28F-1E45-8A96-DDEF282FA7B9}">
   <dimension ref="A1:AW55"/>
   <sheetViews>
@@ -18986,7 +20097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K88"/>
   <sheetViews>
@@ -20475,7 +21586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L137"/>
   <sheetViews>
@@ -22381,1044 +23492,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:S41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J8:J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <f>DATEVALUE(A3&amp;"/"&amp;B3&amp;"/2016")</f>
-        <v>42619</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <f>WEEKNUM(C3)</f>
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" ref="C4:C41" si="0">DATEVALUE(A4&amp;"/"&amp;B4&amp;"/2016")</f>
-        <v>42625</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E41" si="1">WEEKNUM(C4)</f>
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>42626</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>42627</v>
-      </c>
-      <c r="D6">
-        <v>32</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>42628</v>
-      </c>
-      <c r="D7">
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>42629</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>145</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>42632</v>
-      </c>
-      <c r="D9">
-        <v>56</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J9" s="4">
-        <v>19693</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>42633</v>
-      </c>
-      <c r="D10">
-        <v>67</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="4">
-        <v>35324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>42634</v>
-      </c>
-      <c r="D11">
-        <v>59</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J11" s="4">
-        <v>45298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>42635</v>
-      </c>
-      <c r="D12">
-        <v>94</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="F12" t="s">
-        <v>145</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J12" s="4">
-        <v>98057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>42636</v>
-      </c>
-      <c r="D13">
-        <v>1045</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>42639</v>
-      </c>
-      <c r="D14">
-        <v>2067</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>42640</v>
-      </c>
-      <c r="D15">
-        <v>4081</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>42641</v>
-      </c>
-      <c r="D16">
-        <v>4375</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>42642</v>
-      </c>
-      <c r="D17">
-        <v>3645</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>42643</v>
-      </c>
-      <c r="D18">
-        <v>5525</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>42645</v>
-      </c>
-      <c r="D19">
-        <v>3421</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>42646</v>
-      </c>
-      <c r="D20">
-        <v>7248</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="F20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>10</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
-        <v>42647</v>
-      </c>
-      <c r="D21">
-        <v>5896</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
-        <v>42648</v>
-      </c>
-      <c r="D22">
-        <v>5309</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>10</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="0"/>
-        <v>42649</v>
-      </c>
-      <c r="D23">
-        <v>5899</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="0"/>
-        <v>42650</v>
-      </c>
-      <c r="D24">
-        <v>7509</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>10</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="0"/>
-        <v>42651</v>
-      </c>
-      <c r="D25">
-        <v>42</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="F25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="0"/>
-        <v>42652</v>
-      </c>
-      <c r="D26">
-        <v>3710</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="F26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" si="0"/>
-        <v>42653</v>
-      </c>
-      <c r="D27">
-        <v>4939</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="F27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>11</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="0"/>
-        <v>42654</v>
-      </c>
-      <c r="D28">
-        <v>6576</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="F28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2">
-        <f t="shared" si="0"/>
-        <v>42655</v>
-      </c>
-      <c r="D29">
-        <v>11034</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="F29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>13</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="0"/>
-        <v>42656</v>
-      </c>
-      <c r="D30">
-        <v>8336</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="F30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>14</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" si="0"/>
-        <v>42657</v>
-      </c>
-      <c r="D31">
-        <v>10473</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="F31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>15</v>
-      </c>
-      <c r="C32" s="2">
-        <f t="shared" si="0"/>
-        <v>42658</v>
-      </c>
-      <c r="D32">
-        <v>230</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="F32" t="s">
-        <v>148</v>
-      </c>
-      <c r="O32" t="s">
-        <v>343</v>
-      </c>
-      <c r="P32">
-        <v>1425</v>
-      </c>
-      <c r="R32" t="s">
-        <v>494</v>
-      </c>
-      <c r="S32">
-        <v>15213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>10</v>
-      </c>
-      <c r="B33">
-        <v>16</v>
-      </c>
-      <c r="C33" s="2">
-        <f t="shared" si="0"/>
-        <v>42659</v>
-      </c>
-      <c r="D33">
-        <v>6044</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="F33" t="s">
-        <v>149</v>
-      </c>
-      <c r="O33" t="s">
-        <v>344</v>
-      </c>
-      <c r="P33">
-        <v>19693</v>
-      </c>
-      <c r="R33" t="s">
-        <v>495</v>
-      </c>
-      <c r="S33">
-        <v>33298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <v>17</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" si="0"/>
-        <v>42660</v>
-      </c>
-      <c r="D34">
-        <v>13023</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="F34" t="s">
-        <v>149</v>
-      </c>
-      <c r="I34" t="s">
-        <v>260</v>
-      </c>
-      <c r="J34">
-        <v>7573</v>
-      </c>
-      <c r="O34" t="s">
-        <v>345</v>
-      </c>
-      <c r="P34">
-        <v>35324</v>
-      </c>
-      <c r="R34" t="s">
-        <v>496</v>
-      </c>
-      <c r="S34">
-        <v>42146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>10</v>
-      </c>
-      <c r="B35">
-        <v>18</v>
-      </c>
-      <c r="C35" s="2">
-        <f t="shared" si="0"/>
-        <v>42661</v>
-      </c>
-      <c r="D35">
-        <v>12254</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="F35" t="s">
-        <v>149</v>
-      </c>
-      <c r="I35" t="s">
-        <v>254</v>
-      </c>
-      <c r="J35">
-        <v>30110</v>
-      </c>
-      <c r="O35" t="s">
-        <v>346</v>
-      </c>
-      <c r="P35">
-        <v>45298</v>
-      </c>
-      <c r="R35" t="s">
-        <v>497</v>
-      </c>
-      <c r="S35">
-        <v>66474</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>10</v>
-      </c>
-      <c r="B36">
-        <v>19</v>
-      </c>
-      <c r="C36" s="2">
-        <f t="shared" si="0"/>
-        <v>42662</v>
-      </c>
-      <c r="D36">
-        <v>12203</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="F36" t="s">
-        <v>149</v>
-      </c>
-      <c r="I36" t="s">
-        <v>255</v>
-      </c>
-      <c r="J36">
-        <v>27408</v>
-      </c>
-      <c r="O36" t="s">
-        <v>347</v>
-      </c>
-      <c r="P36">
-        <v>98057</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>10</v>
-      </c>
-      <c r="B37">
-        <v>20</v>
-      </c>
-      <c r="C37" s="2">
-        <f t="shared" si="0"/>
-        <v>42663</v>
-      </c>
-      <c r="D37">
-        <v>12247</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="F37" t="s">
-        <v>149</v>
-      </c>
-      <c r="I37" t="s">
-        <v>256</v>
-      </c>
-      <c r="J37">
-        <v>42693</v>
-      </c>
-      <c r="O37" t="s">
-        <v>348</v>
-      </c>
-      <c r="P37">
-        <v>124844</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>10</v>
-      </c>
-      <c r="B38">
-        <v>21</v>
-      </c>
-      <c r="C38" s="2">
-        <f t="shared" si="0"/>
-        <v>42664</v>
-      </c>
-      <c r="D38">
-        <v>15909</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="F38" t="s">
-        <v>149</v>
-      </c>
-      <c r="I38" t="s">
-        <v>257</v>
-      </c>
-      <c r="J38">
-        <v>67073</v>
-      </c>
-      <c r="O38" t="s">
-        <v>349</v>
-      </c>
-      <c r="P38">
-        <v>206871</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>10</v>
-      </c>
-      <c r="B39">
-        <v>22</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" si="0"/>
-        <v>42665</v>
-      </c>
-      <c r="D39">
-        <v>1437</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="F39" t="s">
-        <v>149</v>
-      </c>
-      <c r="I39" t="s">
-        <v>258</v>
-      </c>
-      <c r="J39">
-        <v>24940</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>10</v>
-      </c>
-      <c r="B40">
-        <v>23</v>
-      </c>
-      <c r="C40" s="2">
-        <f t="shared" si="0"/>
-        <v>42666</v>
-      </c>
-      <c r="D40">
-        <v>6580</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="F40" t="s">
-        <v>149</v>
-      </c>
-      <c r="I40" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>10</v>
-      </c>
-      <c r="B41">
-        <v>24</v>
-      </c>
-      <c r="C41" s="2">
-        <f t="shared" si="0"/>
-        <v>42667</v>
-      </c>
-      <c r="D41">
-        <v>18360</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="F41" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/4_queue/20200125-early_vote/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ADEDD5-ACE8-DE4B-BC2E-42459244A2EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C79BB98-33F6-B44A-A252-0AC3B4F2CAA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="1040" windowWidth="26960" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3500" yWindow="1040" windowWidth="26960" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020_p_counties" sheetId="14" r:id="rId1"/>
     <sheet name="weekly" sheetId="12" r:id="rId2"/>
-    <sheet name="2020" sheetId="11" r:id="rId3"/>
+    <sheet name="2020totals" sheetId="11" r:id="rId3"/>
     <sheet name="2018counties" sheetId="10" r:id="rId4"/>
     <sheet name="2018regions" sheetId="9" r:id="rId5"/>
     <sheet name="2018primary" sheetId="8" r:id="rId6"/>
@@ -3234,7 +3234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A272C687-6191-E64E-B12D-E2FD4695954B}">
   <dimension ref="A1:AA89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
@@ -9164,8 +9164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3959946-208A-0648-99C3-FA34EBA2C5C8}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/4_queue/20200125-early_vote/sources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/4_queue/20200125-early_vote/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C79BB98-33F6-B44A-A252-0AC3B4F2CAA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B381A0-5238-9744-8FC0-6E7B1A24398A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="1040" windowWidth="26960" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3400" yWindow="2860" windowWidth="26960" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020_p_counties" sheetId="14" r:id="rId1"/>
@@ -9165,7 +9165,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9236,6 +9236,9 @@
       </c>
       <c r="D4">
         <v>42916</v>
+      </c>
+      <c r="E4">
+        <v>6837</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/4_queue/20200125-early_vote/sources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/4_queue/20200125-early_vote/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B381A0-5238-9744-8FC0-6E7B1A24398A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB88CD1-D4C0-494A-80E9-E3B5EB242A1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="2860" windowWidth="26960" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="4000" windowWidth="26960" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020_p_counties" sheetId="14" r:id="rId1"/>
@@ -9165,7 +9165,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9253,6 +9253,9 @@
       </c>
       <c r="D5">
         <v>74222</v>
+      </c>
+      <c r="E5">
+        <v>8264</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/4_queue/20200125-early_vote/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB88CD1-D4C0-494A-80E9-E3B5EB242A1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F500BC-3749-3449-A570-FDE381AD9463}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="4000" windowWidth="26960" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5900" yWindow="1120" windowWidth="26960" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020_p_counties" sheetId="14" r:id="rId1"/>
@@ -9165,7 +9165,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9270,6 +9270,9 @@
       </c>
       <c r="D6">
         <v>90249</v>
+      </c>
+      <c r="E6">
+        <v>11267</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/4_queue/20200125-early_vote/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F500BC-3749-3449-A570-FDE381AD9463}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F636711A-1094-8D45-87E0-C5818558A431}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="1120" windowWidth="26960" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="4560" windowWidth="26960" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020_p_counties" sheetId="14" r:id="rId1"/>
@@ -9165,7 +9165,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9287,6 +9287,9 @@
       </c>
       <c r="D7">
         <v>160329</v>
+      </c>
+      <c r="E7">
+        <v>29409</v>
       </c>
     </row>
   </sheetData>
